--- a/策划案/日本語を勉強/N2冲刺/単語/日本語能力試験N2単語2500.xlsx
+++ b/策划案/日本語を勉強/N2冲刺/単語/日本語能力試験N2単語2500.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOCUMENT\doc\DesignerDoc\策划案\日本語を勉強\N2冲刺\単語\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2B3EC0-254B-40AD-8D5B-991A9F7C0398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D590246F-7610-4B66-8C70-1A82AB5B226F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="一" sheetId="3" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3218" uniqueCount="3109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3229" uniqueCount="3119">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -13049,6 +13049,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>节奏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>out door</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -13062,7 +13066,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>呼呼大睡；猛烈的</t>
+    <t>やぶれる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采纳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还差点意思</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看起来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显眼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>果然</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拘泥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きょうつう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼呼大睡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -13518,10 +13558,10 @@
   <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F89" sqref="F89"/>
+      <selection pane="bottomRight" activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14930,7 +14970,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A69" sqref="A69:XFD69"/>
+      <selection pane="bottomRight" activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16932,10 +16972,10 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D6E6171-DB11-4296-97CD-6BE112F5E799}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H92"/>
+  <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F88" sqref="F88"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -18811,6 +18851,9 @@
       <c r="H92" t="s">
         <v>643</v>
       </c>
+    </row>
+    <row r="93" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B93" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H92" xr:uid="{5D6E6171-DB11-4296-97CD-6BE112F5E799}">
@@ -18836,10 +18879,10 @@
   <dimension ref="A1:G106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A32" sqref="A32:XFD32"/>
+      <selection pane="bottomRight" activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -20754,7 +20797,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F92" sqref="F92"/>
+      <selection pane="bottomRight" activeCell="A64" sqref="A64:XFD64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -22159,7 +22202,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D84" sqref="D84"/>
+      <selection pane="bottomRight" activeCell="A63" sqref="A63:XFD63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -22396,7 +22439,7 @@
         <v>2717</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -22407,7 +22450,7 @@
         <v>2</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7"/>
       <c r="G12" t="s">
@@ -23639,7 +23682,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A50" sqref="A50:XFD50"/>
+      <selection pane="bottomRight" activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -24036,7 +24079,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -24047,7 +24090,7 @@
         <v>2</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E21" s="7"/>
       <c r="G21" s="3" t="s">
@@ -24731,7 +24774,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A106" sqref="A106:XFD106"/>
+      <selection pane="bottomRight" activeCell="E118" sqref="E118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -25418,7 +25461,7 @@
         <v>2464</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>32</v>
       </c>
@@ -25429,7 +25472,7 @@
         <v>1</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" s="7"/>
       <c r="G31" s="3" t="s">
@@ -27216,7 +27259,6 @@
     </filterColumn>
     <filterColumn colId="3">
       <filters>
-        <filter val="1"/>
         <filter val="2"/>
       </filters>
     </filterColumn>
@@ -29667,10 +29709,10 @@
   <dimension ref="A1:H84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E80" sqref="E80"/>
+      <selection pane="bottomRight" activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -29679,8 +29721,8 @@
     <col min="2" max="2" width="19.625" style="10" customWidth="1"/>
     <col min="3" max="3" width="14.375" style="10" customWidth="1"/>
     <col min="4" max="4" width="15.375" style="10" customWidth="1"/>
-    <col min="5" max="5" width="38.375" style="10" customWidth="1"/>
-    <col min="6" max="6" width="33.625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="48" style="10" customWidth="1"/>
+    <col min="6" max="6" width="57.25" style="10" customWidth="1"/>
     <col min="7" max="7" width="43.375" style="10" customWidth="1"/>
     <col min="8" max="8" width="73.75" style="10" customWidth="1"/>
     <col min="9" max="16384" width="9" style="10"/>
@@ -29769,7 +29811,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="5" spans="1:8" customFormat="1" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -29780,7 +29822,7 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2"/>
       <c r="G5" s="3" t="s">
@@ -29877,7 +29919,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="10" spans="1:8" customFormat="1" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -29888,9 +29930,11 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>3109</v>
+      </c>
       <c r="G10" s="3" t="s">
         <v>1854</v>
       </c>
@@ -30069,7 +30113,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="19" spans="1:8" customFormat="1" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -30080,9 +30124,11 @@
         <v>2</v>
       </c>
       <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>3110</v>
+      </c>
       <c r="G19" s="3" t="s">
         <v>1879</v>
       </c>
@@ -30201,7 +30247,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
         <v>26</v>
       </c>
@@ -30212,7 +30258,10 @@
         <v>2</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>3111</v>
       </c>
       <c r="G25" s="10" t="s">
         <v>1897</v>
@@ -30221,7 +30270,7 @@
         <v>2934</v>
       </c>
     </row>
-    <row r="26" spans="1:8" customFormat="1" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>27</v>
       </c>
@@ -30232,7 +30281,7 @@
         <v>2</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E26" s="2"/>
       <c r="G26" s="3" t="s">
@@ -30263,7 +30312,7 @@
         <v>1902</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
         <v>29</v>
       </c>
@@ -30274,7 +30323,10 @@
         <v>2</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>3112</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>1904</v>
@@ -30283,7 +30335,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
         <v>30</v>
       </c>
@@ -30294,7 +30346,10 @@
         <v>2</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>3113</v>
       </c>
       <c r="G29" s="10" t="s">
         <v>2935</v>
@@ -30323,7 +30378,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="10">
         <v>32</v>
       </c>
@@ -30334,7 +30389,7 @@
         <v>2</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G31" s="10" t="s">
         <v>1912</v>
@@ -30343,7 +30398,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10">
         <v>33</v>
       </c>
@@ -30354,7 +30409,7 @@
         <v>2</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" s="10" t="s">
         <v>1915</v>
@@ -30418,10 +30473,10 @@
         <v>2</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>3106</v>
+        <v>3107</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>3107</v>
+        <v>3108</v>
       </c>
     </row>
     <row r="36" spans="1:8" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
@@ -30463,7 +30518,7 @@
       </c>
       <c r="H37" s="11"/>
     </row>
-    <row r="38" spans="1:8" customFormat="1" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>39</v>
       </c>
@@ -30474,7 +30529,7 @@
         <v>2</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E38" s="9"/>
       <c r="G38" s="3" t="s">
@@ -30502,7 +30557,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="40" spans="1:8" customFormat="1" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:8" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>41</v>
       </c>
@@ -30513,7 +30568,7 @@
         <v>1</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" s="2"/>
       <c r="G40" s="3" t="s">
@@ -30739,7 +30794,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="52" spans="1:8" customFormat="1" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:8" customFormat="1" ht="34.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>53</v>
       </c>
@@ -30750,7 +30805,10 @@
         <v>2</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E52" t="s">
+        <v>3105</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>1963</v>
@@ -30861,7 +30919,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="10">
         <v>59</v>
       </c>
@@ -30872,9 +30930,11 @@
         <v>2</v>
       </c>
       <c r="D58">
-        <v>2</v>
-      </c>
-      <c r="E58" s="15"/>
+        <v>0</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>3114</v>
+      </c>
       <c r="G58" s="10" t="s">
         <v>1981</v>
       </c>
@@ -30963,7 +31023,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="10">
         <v>64</v>
       </c>
@@ -30974,7 +31034,10 @@
         <v>2</v>
       </c>
       <c r="D63">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>3115</v>
       </c>
       <c r="G63" s="10" t="s">
         <v>1996</v>
@@ -31065,7 +31128,7 @@
       </c>
       <c r="H67" s="11"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="10">
         <v>69</v>
       </c>
@@ -31076,7 +31139,7 @@
         <v>2</v>
       </c>
       <c r="D68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E68" s="15"/>
       <c r="G68" s="10" t="s">
@@ -31104,7 +31167,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="10">
         <v>71</v>
       </c>
@@ -31115,9 +31178,11 @@
         <v>2</v>
       </c>
       <c r="D70">
-        <v>2</v>
-      </c>
-      <c r="E70" s="15"/>
+        <v>0</v>
+      </c>
+      <c r="E70" s="15" t="s">
+        <v>3116</v>
+      </c>
       <c r="G70" s="10" t="s">
         <v>2014</v>
       </c>
@@ -31160,7 +31225,7 @@
         <v>0</v>
       </c>
       <c r="E72" s="15" t="s">
-        <v>3105</v>
+        <v>3106</v>
       </c>
       <c r="G72" s="10" t="s">
         <v>2019</v>
@@ -31188,7 +31253,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="10">
         <v>75</v>
       </c>
@@ -31199,9 +31264,11 @@
         <v>2</v>
       </c>
       <c r="D74">
-        <v>2</v>
-      </c>
-      <c r="E74" s="14"/>
+        <v>0</v>
+      </c>
+      <c r="E74" s="17" t="s">
+        <v>3117</v>
+      </c>
       <c r="G74" s="10" t="s">
         <v>2024</v>
       </c>
@@ -31209,7 +31276,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="10">
         <v>76</v>
       </c>
@@ -31220,7 +31287,7 @@
         <v>2</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E75" s="15"/>
       <c r="G75" s="10" t="s">
@@ -31251,7 +31318,7 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="10">
         <v>78</v>
       </c>
@@ -31262,7 +31329,7 @@
         <v>2</v>
       </c>
       <c r="D77">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E77" s="15"/>
       <c r="G77" s="10" t="s">
@@ -31289,7 +31356,7 @@
       </c>
       <c r="H78" s="7"/>
     </row>
-    <row r="79" spans="1:8" customFormat="1" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:8" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>80</v>
       </c>
@@ -31300,7 +31367,7 @@
         <v>1</v>
       </c>
       <c r="D79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E79" s="15"/>
       <c r="G79" s="3" t="s">
@@ -31348,7 +31415,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="82" spans="1:8" customFormat="1" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:8" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>83</v>
       </c>
@@ -31359,9 +31426,11 @@
         <v>2</v>
       </c>
       <c r="D82">
-        <v>2</v>
-      </c>
-      <c r="E82" s="15"/>
+        <v>0</v>
+      </c>
+      <c r="E82" s="15" t="s">
+        <v>2044</v>
+      </c>
       <c r="G82" s="3" t="s">
         <v>2044</v>
       </c>
@@ -31420,10 +31489,10 @@
   <dimension ref="A1:H98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E101" sqref="E101"/>
+      <selection pane="bottomRight" activeCell="F99" sqref="F99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -31432,8 +31501,8 @@
     <col min="2" max="2" width="19.625" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
     <col min="4" max="4" width="12.875" customWidth="1"/>
-    <col min="5" max="5" width="26.5" customWidth="1"/>
-    <col min="6" max="6" width="57.875" customWidth="1"/>
+    <col min="5" max="5" width="24.5" customWidth="1"/>
+    <col min="6" max="6" width="42.875" customWidth="1"/>
     <col min="7" max="7" width="43.375" customWidth="1"/>
     <col min="8" max="8" width="73.75" customWidth="1"/>
   </cols>
@@ -31629,7 +31698,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -31640,7 +31709,7 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E10" s="13"/>
       <c r="G10" s="3" t="s">
@@ -31759,7 +31828,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -31770,7 +31839,7 @@
         <v>2</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E16" s="2"/>
       <c r="G16" s="3" t="s">
@@ -31993,7 +32062,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" ht="34.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -32004,7 +32073,7 @@
         <v>2</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>1644</v>
@@ -32668,7 +32737,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>58</v>
       </c>
@@ -32704,7 +32773,7 @@
       </c>
       <c r="E60" s="9"/>
       <c r="G60" s="3" t="s">
-        <v>3108</v>
+        <v>3118</v>
       </c>
       <c r="H60" s="8" t="s">
         <v>1728</v>
@@ -33169,7 +33238,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:8" ht="34.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>82</v>
       </c>
@@ -33180,7 +33249,7 @@
         <v>2</v>
       </c>
       <c r="D83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E83" s="9"/>
       <c r="G83" s="3" t="s">
@@ -33293,7 +33362,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:8" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>88</v>
       </c>
@@ -33304,14 +33373,14 @@
         <v>2</v>
       </c>
       <c r="D89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E89" s="2"/>
       <c r="G89" s="3" t="s">
         <v>1806</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:8" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>89</v>
       </c>
@@ -33322,7 +33391,7 @@
         <v>2</v>
       </c>
       <c r="D90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E90" s="2"/>
       <c r="G90" s="3" t="s">
@@ -33470,7 +33539,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:8" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>97</v>
       </c>
@@ -33481,7 +33550,7 @@
         <v>2</v>
       </c>
       <c r="D98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E98" s="2"/>
       <c r="G98" s="3" t="s">
@@ -33517,11 +33586,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H51" sqref="H51"/>
+      <selection pane="bottomRight" activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
